--- a/database/class.xlsx
+++ b/database/class.xlsx
@@ -15,10 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$211</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="215">
   <si>
     <t>class_code</t>
   </si>
@@ -670,6 +669,9 @@
   </si>
   <si>
     <t>ARTS 124s-K69MT.1_LT</t>
+  </si>
+  <si>
+    <t>2019HK2</t>
   </si>
 </sst>
 </file>
@@ -1029,15 +1031,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D208"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1054,7 +1060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1063,6 +1069,9 @@
       </c>
       <c r="C2" s="2">
         <v>673</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1075,6 +1084,9 @@
       <c r="C3">
         <v>574</v>
       </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1086,6 +1098,9 @@
       <c r="C4">
         <v>575</v>
       </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1097,6 +1112,9 @@
       <c r="C5">
         <v>576</v>
       </c>
+      <c r="D5" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1108,6 +1126,9 @@
       <c r="C6">
         <v>577</v>
       </c>
+      <c r="D6" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1119,6 +1140,9 @@
       <c r="C7">
         <v>578</v>
       </c>
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1130,6 +1154,9 @@
       <c r="C8">
         <v>579</v>
       </c>
+      <c r="D8" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1141,6 +1168,9 @@
       <c r="C9">
         <v>580</v>
       </c>
+      <c r="D9" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1152,8 +1182,11 @@
       <c r="C10">
         <v>581</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1163,8 +1196,11 @@
       <c r="C11">
         <v>802</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,8 +1210,11 @@
       <c r="C12">
         <v>804</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1224,11 @@
       <c r="C13">
         <v>800</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,8 +1238,11 @@
       <c r="C14">
         <v>802</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1207,278 +1252,764 @@
       <c r="C15">
         <v>806</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="D15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>913</v>
+      </c>
+      <c r="D16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>942</v>
+      </c>
+      <c r="D17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>943</v>
+      </c>
+      <c r="D18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>914</v>
+      </c>
+      <c r="D19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>980</v>
+      </c>
+      <c r="D20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>981</v>
+      </c>
+      <c r="D21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>982</v>
+      </c>
+      <c r="D22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>983</v>
+      </c>
+      <c r="D23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>984</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>985</v>
+      </c>
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>986</v>
+      </c>
+      <c r="D26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>983</v>
+      </c>
+      <c r="D27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>783</v>
+      </c>
+      <c r="D28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>693</v>
+      </c>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>738</v>
+      </c>
+      <c r="D30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>739</v>
+      </c>
+      <c r="D31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>778</v>
+      </c>
+      <c r="D32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>784</v>
+      </c>
+      <c r="D33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>777</v>
+      </c>
+      <c r="D34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>785</v>
+      </c>
+      <c r="D35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>786</v>
+      </c>
+      <c r="D36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>787</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>779</v>
+      </c>
+      <c r="D38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>788</v>
+      </c>
+      <c r="D39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>789</v>
+      </c>
+      <c r="D40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>790</v>
+      </c>
+      <c r="D41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>782</v>
+      </c>
+      <c r="D42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>781</v>
+      </c>
+      <c r="D43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>780</v>
+      </c>
+      <c r="D44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>780</v>
+      </c>
+      <c r="D45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>788</v>
+      </c>
+      <c r="D46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>791</v>
+      </c>
+      <c r="D47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>55</v>
+      </c>
+      <c r="C48">
+        <v>783</v>
+      </c>
+      <c r="D48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>777</v>
+      </c>
+      <c r="D49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>785</v>
+      </c>
+      <c r="D50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>786</v>
+      </c>
+      <c r="D51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>792</v>
+      </c>
+      <c r="D52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>61</v>
+      </c>
+      <c r="C53">
+        <v>782</v>
+      </c>
+      <c r="D53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>779</v>
+      </c>
+      <c r="D54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>790</v>
+      </c>
+      <c r="D55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>64</v>
+      </c>
+      <c r="C56">
+        <v>793</v>
+      </c>
+      <c r="D56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>64</v>
+      </c>
+      <c r="C57">
+        <v>794</v>
+      </c>
+      <c r="D57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>783</v>
+      </c>
+      <c r="D58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>67</v>
+      </c>
+      <c r="C59">
+        <v>791</v>
+      </c>
+      <c r="D59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>68</v>
+      </c>
+      <c r="C60">
+        <v>795</v>
+      </c>
+      <c r="D60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>796</v>
+      </c>
+      <c r="D61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>797</v>
+      </c>
+      <c r="D62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>71</v>
+      </c>
+      <c r="C63">
+        <v>792</v>
+      </c>
+      <c r="D63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>72</v>
+      </c>
+      <c r="C64">
+        <v>784</v>
+      </c>
+      <c r="D64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>73</v>
+      </c>
+      <c r="C65">
+        <v>789</v>
+      </c>
+      <c r="D65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>74</v>
+      </c>
+      <c r="C66">
+        <v>780</v>
+      </c>
+      <c r="D66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>75</v>
+      </c>
+      <c r="C67">
+        <v>783</v>
+      </c>
+      <c r="D67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>75</v>
+      </c>
+      <c r="C68">
+        <v>792</v>
+      </c>
+      <c r="D68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>82</v>
+      </c>
+      <c r="D69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -1488,28 +2019,67 @@
       <c r="C70">
         <v>813</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="D70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>84</v>
+      </c>
+      <c r="C71">
+        <v>892</v>
+      </c>
+      <c r="D71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>92</v>
+      </c>
+      <c r="C72">
+        <v>629</v>
+      </c>
+      <c r="D72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>93</v>
+      </c>
+      <c r="C73">
+        <v>629</v>
+      </c>
+      <c r="D73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>93</v>
+      </c>
+      <c r="C74">
+        <v>630</v>
+      </c>
+      <c r="D74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -1519,8 +2089,11 @@
       <c r="C75">
         <v>815</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -1530,8 +2103,11 @@
       <c r="C76">
         <v>816</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -1541,8 +2117,11 @@
       <c r="C77">
         <v>815</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -1552,8 +2131,11 @@
       <c r="C78">
         <v>812</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -1563,8 +2145,11 @@
       <c r="C79">
         <v>817</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -1574,8 +2159,11 @@
       <c r="C80">
         <v>818</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -1585,8 +2173,11 @@
       <c r="C81">
         <v>819</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -1596,8 +2187,11 @@
       <c r="C82">
         <v>812</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -1607,23 +2201,53 @@
       <c r="C83">
         <v>820</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>107</v>
+      </c>
+      <c r="C84">
+        <v>624</v>
+      </c>
+      <c r="D84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>108</v>
+      </c>
+      <c r="C85">
+        <v>624</v>
+      </c>
+      <c r="D85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>108</v>
+      </c>
+      <c r="C86">
+        <v>631</v>
+      </c>
+      <c r="D86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -1633,8 +2257,11 @@
       <c r="C87">
         <v>807</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -1644,148 +2271,400 @@
       <c r="C88" s="2">
         <v>1101</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>114</v>
+      </c>
+      <c r="C89">
+        <v>863</v>
+      </c>
+      <c r="D89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>114</v>
+      </c>
+      <c r="C90">
+        <v>864</v>
+      </c>
+      <c r="D90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>124</v>
+      </c>
+      <c r="C91">
+        <v>749</v>
+      </c>
+      <c r="D91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>124</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1104</v>
+      </c>
+      <c r="D92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>124</v>
+      </c>
+      <c r="C93">
+        <v>750</v>
+      </c>
+      <c r="D93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>127</v>
+      </c>
+      <c r="C94">
+        <v>865</v>
+      </c>
+      <c r="D94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>127</v>
+      </c>
+      <c r="C95">
+        <v>866</v>
+      </c>
+      <c r="D95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>127</v>
+      </c>
+      <c r="C96">
+        <v>867</v>
+      </c>
+      <c r="D96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>127</v>
+      </c>
+      <c r="C97">
+        <v>864</v>
+      </c>
+      <c r="D97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>127</v>
+      </c>
+      <c r="D98" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>132</v>
+      </c>
+      <c r="C99">
+        <v>1075</v>
+      </c>
+      <c r="D99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>132</v>
+      </c>
+      <c r="C100">
+        <v>1076</v>
+      </c>
+      <c r="D100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>132</v>
+      </c>
+      <c r="C101">
+        <v>1077</v>
+      </c>
+      <c r="D101" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>135</v>
+      </c>
+      <c r="C102">
+        <v>965</v>
+      </c>
+      <c r="D102" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>135</v>
+      </c>
+      <c r="C103">
+        <v>974</v>
+      </c>
+      <c r="D103" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>137</v>
+      </c>
+      <c r="C104">
+        <v>565</v>
+      </c>
+      <c r="D104" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>137</v>
+      </c>
+      <c r="C105">
+        <v>566</v>
+      </c>
+      <c r="D105" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>137</v>
+      </c>
+      <c r="C106">
+        <v>567</v>
+      </c>
+      <c r="D106" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>137</v>
+      </c>
+      <c r="C107">
+        <v>568</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>137</v>
+      </c>
+      <c r="C108">
+        <v>559</v>
+      </c>
+      <c r="D108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>137</v>
+      </c>
+      <c r="C109">
+        <v>557</v>
+      </c>
+      <c r="D109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>137</v>
+      </c>
+      <c r="C110">
+        <v>569</v>
+      </c>
+      <c r="D110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>137</v>
+      </c>
+      <c r="C111">
+        <v>570</v>
+      </c>
+      <c r="D111" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>137</v>
+      </c>
+      <c r="C112">
+        <v>560</v>
+      </c>
+      <c r="D112" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>146</v>
+      </c>
+      <c r="C113">
+        <v>1078</v>
+      </c>
+      <c r="D113" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>146</v>
+      </c>
+      <c r="C114">
+        <v>1079</v>
+      </c>
+      <c r="D114" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="B115">
+        <v>146</v>
+      </c>
+      <c r="C115">
+        <v>1080</v>
+      </c>
+      <c r="D115" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>149</v>
+      </c>
+      <c r="C116">
+        <v>880</v>
+      </c>
+      <c r="D116" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
@@ -1795,8 +2674,11 @@
       <c r="C117">
         <v>584</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
@@ -1806,8 +2688,11 @@
       <c r="C118">
         <v>587</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
@@ -1817,8 +2702,11 @@
       <c r="C119">
         <v>614</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
@@ -1828,8 +2716,11 @@
       <c r="C120">
         <v>598</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -1839,8 +2730,11 @@
       <c r="C121">
         <v>600</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
@@ -1850,8 +2744,11 @@
       <c r="C122">
         <v>611</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
@@ -1861,8 +2758,11 @@
       <c r="C123">
         <v>601</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
@@ -1872,8 +2772,11 @@
       <c r="C124">
         <v>613</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
@@ -1883,8 +2786,11 @@
       <c r="C125">
         <v>587</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -1894,153 +2800,417 @@
       <c r="C126">
         <v>610</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>151</v>
+      </c>
+      <c r="C127">
+        <v>975</v>
+      </c>
+      <c r="D127" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>152</v>
+      </c>
+      <c r="C128">
+        <v>754</v>
+      </c>
+      <c r="D128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>152</v>
+      </c>
+      <c r="C129">
+        <v>755</v>
+      </c>
+      <c r="D129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>152</v>
+      </c>
+      <c r="C130">
+        <v>1104</v>
+      </c>
+      <c r="D130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>152</v>
+      </c>
+      <c r="C131">
+        <v>756</v>
+      </c>
+      <c r="D131" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>152</v>
+      </c>
+      <c r="C132">
+        <v>739</v>
+      </c>
+      <c r="D132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>158</v>
+      </c>
+      <c r="C133">
+        <v>749</v>
+      </c>
+      <c r="D133" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>158</v>
+      </c>
+      <c r="C134">
+        <v>754</v>
+      </c>
+      <c r="D134" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>158</v>
+      </c>
+      <c r="C135">
+        <v>758</v>
+      </c>
+      <c r="D135" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>158</v>
+      </c>
+      <c r="C136">
+        <v>759</v>
+      </c>
+      <c r="D136" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>158</v>
+      </c>
+      <c r="C137">
+        <v>747</v>
+      </c>
+      <c r="D137" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>162</v>
+      </c>
+      <c r="C138">
+        <v>854</v>
+      </c>
+      <c r="D138" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="B139">
+        <v>163</v>
+      </c>
+      <c r="C139">
+        <v>700</v>
+      </c>
+      <c r="D139" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>164</v>
+      </c>
+      <c r="C140">
+        <v>1050</v>
+      </c>
+      <c r="D140" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>165</v>
+      </c>
+      <c r="C141">
+        <v>1059</v>
+      </c>
+      <c r="D141" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>166</v>
+      </c>
+      <c r="C142">
+        <v>929</v>
+      </c>
+      <c r="D142" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="B143">
+        <v>166</v>
+      </c>
+      <c r="C143">
+        <v>918</v>
+      </c>
+      <c r="D143" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>168</v>
+      </c>
+      <c r="C144">
+        <v>1034</v>
+      </c>
+      <c r="D144" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>168</v>
+      </c>
+      <c r="C145">
+        <v>1033</v>
+      </c>
+      <c r="D145" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>170</v>
+      </c>
+      <c r="C146">
+        <v>698</v>
+      </c>
+      <c r="D146" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>171</v>
+      </c>
+      <c r="C147">
+        <v>1061</v>
+      </c>
+      <c r="D147" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>172</v>
+      </c>
+      <c r="C148">
+        <v>871</v>
+      </c>
+      <c r="D148" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>172</v>
+      </c>
+      <c r="C149">
+        <v>872</v>
+      </c>
+      <c r="D149" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>172</v>
+      </c>
+      <c r="C150">
+        <v>873</v>
+      </c>
+      <c r="D150" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>172</v>
+      </c>
+      <c r="C151">
+        <v>874</v>
+      </c>
+      <c r="D151" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>176</v>
+      </c>
+      <c r="C152">
+        <v>795</v>
+      </c>
+      <c r="D152" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>176</v>
+      </c>
+      <c r="C153">
+        <v>786</v>
+      </c>
+      <c r="D153" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>178</v>
+      </c>
+      <c r="C154">
+        <v>1005</v>
+      </c>
+      <c r="D154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>178</v>
+      </c>
+      <c r="C155">
+        <v>1006</v>
+      </c>
+      <c r="D155" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
@@ -2050,8 +3220,11 @@
       <c r="C156">
         <v>620</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
@@ -2061,8 +3234,11 @@
       <c r="C157">
         <v>609</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
@@ -2072,8 +3248,11 @@
       <c r="C158">
         <v>591</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -2083,8 +3262,11 @@
       <c r="C159">
         <v>593</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
@@ -2094,8 +3276,11 @@
       <c r="C160">
         <v>606</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -2105,8 +3290,11 @@
       <c r="C161">
         <v>607</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
@@ -2116,8 +3304,11 @@
       <c r="C162">
         <v>617</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
@@ -2127,8 +3318,11 @@
       <c r="C163">
         <v>608</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
@@ -2138,8 +3332,11 @@
       <c r="C164">
         <v>615</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
@@ -2149,8 +3346,11 @@
       <c r="C165">
         <v>592</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
@@ -2160,8 +3360,11 @@
       <c r="C166">
         <v>576</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
@@ -2171,8 +3374,11 @@
       <c r="C167">
         <v>596</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -2182,8 +3388,11 @@
       <c r="C168">
         <v>601</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
@@ -2193,8 +3402,11 @@
       <c r="C169">
         <v>603</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
@@ -2204,8 +3416,11 @@
       <c r="C170">
         <v>612</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -2215,8 +3430,11 @@
       <c r="C171">
         <v>621</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
@@ -2226,8 +3444,11 @@
       <c r="C172">
         <v>673</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
@@ -2237,8 +3458,11 @@
       <c r="C173">
         <v>674</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
@@ -2248,173 +3472,470 @@
       <c r="C174">
         <v>689</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="D174" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>180</v>
+      </c>
+      <c r="C175">
+        <v>910</v>
+      </c>
+      <c r="D175" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>181</v>
+      </c>
+      <c r="C176">
+        <v>766</v>
+      </c>
+      <c r="D176" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>181</v>
+      </c>
+      <c r="C177">
+        <v>739</v>
+      </c>
+      <c r="D177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>181</v>
+      </c>
+      <c r="C178">
+        <v>767</v>
+      </c>
+      <c r="D178" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>181</v>
+      </c>
+      <c r="C179">
+        <v>768</v>
+      </c>
+      <c r="D179" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>181</v>
+      </c>
+      <c r="C180">
+        <v>769</v>
+      </c>
+      <c r="D180" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>181</v>
+      </c>
+      <c r="D181" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182">
+        <v>1104</v>
+      </c>
+      <c r="D182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>181</v>
+      </c>
+      <c r="C183">
+        <v>742</v>
+      </c>
+      <c r="D183" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>181</v>
+      </c>
+      <c r="C184">
+        <v>748</v>
+      </c>
+      <c r="D184" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>181</v>
+      </c>
+      <c r="C185">
+        <v>761</v>
+      </c>
+      <c r="D185" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>191</v>
+      </c>
+      <c r="C186">
+        <v>761</v>
+      </c>
+      <c r="D186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>191</v>
+      </c>
+      <c r="C187">
+        <v>770</v>
+      </c>
+      <c r="D187" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>191</v>
+      </c>
+      <c r="C188">
+        <v>754</v>
+      </c>
+      <c r="D188" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>191</v>
+      </c>
+      <c r="C189">
+        <v>741</v>
+      </c>
+      <c r="D189" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>191</v>
+      </c>
+      <c r="C190">
+        <v>771</v>
+      </c>
+      <c r="D190" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>191</v>
+      </c>
+      <c r="C191">
+        <v>763</v>
+      </c>
+      <c r="D191" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192">
+        <v>750</v>
+      </c>
+      <c r="D192" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>191</v>
+      </c>
+      <c r="C193">
+        <v>746</v>
+      </c>
+      <c r="D193" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>199</v>
+      </c>
+      <c r="C194">
+        <v>772</v>
+      </c>
+      <c r="D194" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>199</v>
+      </c>
+      <c r="C195">
+        <v>758</v>
+      </c>
+      <c r="D195" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>199</v>
+      </c>
+      <c r="C196">
+        <v>759</v>
+      </c>
+      <c r="D196" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>202</v>
+      </c>
+      <c r="C197">
+        <v>1067</v>
+      </c>
+      <c r="D197" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>203</v>
+      </c>
+      <c r="C198">
+        <v>1070</v>
+      </c>
+      <c r="D198" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>203</v>
+      </c>
+      <c r="C199">
+        <v>1071</v>
+      </c>
+      <c r="D199" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>205</v>
+      </c>
+      <c r="C200">
+        <v>1105</v>
+      </c>
+      <c r="D200" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>205</v>
+      </c>
+      <c r="C201">
+        <v>1106</v>
+      </c>
+      <c r="D201" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>206</v>
+      </c>
+      <c r="C202">
+        <v>1107</v>
+      </c>
+      <c r="D202" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>206</v>
+      </c>
+      <c r="C203">
+        <v>1106</v>
+      </c>
+      <c r="D203" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>206</v>
+      </c>
+      <c r="C204">
+        <v>1109</v>
+      </c>
+      <c r="D204" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>206</v>
+      </c>
+      <c r="C205">
+        <v>1110</v>
+      </c>
+      <c r="D205" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="B206">
+        <v>206</v>
+      </c>
+      <c r="C206">
+        <v>1105</v>
+      </c>
+      <c r="D206" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>212</v>
+      </c>
+      <c r="C207">
+        <v>849</v>
+      </c>
+      <c r="D207" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
@@ -2424,8 +3945,11 @@
       <c r="C208">
         <v>595</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D208" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
@@ -2435,18 +3959,81 @@
       <c r="C209">
         <v>801</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D209" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>214</v>
+      </c>
+      <c r="C210">
+        <v>912</v>
+      </c>
+      <c r="D210" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="B211">
+        <v>215</v>
+      </c>
+      <c r="C211">
+        <v>900</v>
+      </c>
+      <c r="D211" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D211">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MATH 137-K69.1_LT"/>
+        <filter val="MATH 137-K69.12_LT"/>
+        <filter val="MATH 137-K69.13_LT"/>
+        <filter val="MATH 137-K69.14_LT"/>
+        <filter val="MATH 137-K69.15_LT"/>
+        <filter val="MATH 137-K69.16_LT"/>
+        <filter val="MATH 137-K69.17_LT"/>
+        <filter val="MATH 137-K69.18_LT"/>
+        <filter val="MATH 137-K69.19_LT"/>
+        <filter val="MATH 137-K69.2_LT"/>
+        <filter val="MATH 137-K69.20_LT"/>
+        <filter val="MATH 137-K69.3_LT"/>
+        <filter val="MATH 137-K69.5_LT"/>
+        <filter val="MATH 137-K69.7_LT"/>
+        <filter val="MATH 137-K69.8_LT"/>
+        <filter val="MATH 137-K69.9_LT"/>
+        <filter val="MATH 158H-K69SP HoáTA.1_LT"/>
+        <filter val="MATH 159-K69.1_LT"/>
+        <filter val="MATH 159-K69.12_LT"/>
+        <filter val="MATH 159-K69.2_LT"/>
+        <filter val="MATH 159-K69.3_LT"/>
+        <filter val="MATH 159-K69.4_LT"/>
+        <filter val="MATH 159-K69.5_LT"/>
+        <filter val="MATH 159-K69.6_LT"/>
+        <filter val="MATH 159-K69.7_LT"/>
+        <filter val="MATH 160-K69.1_LT"/>
+        <filter val="MATH 160-K69.10_LT"/>
+        <filter val="MATH 160-K69.11_LT"/>
+        <filter val="MATH 160-K69.3_LT"/>
+        <filter val="MATH 160-K69.4_LT"/>
+        <filter val="MATH 160-K69.5_LT"/>
+        <filter val="MATH 160-K69.6_LT"/>
+        <filter val="MATH 160-K69.7_LT"/>
+        <filter val="MATH 160-K69.8_LT"/>
+        <filter val="MATH 160-K69.9_LT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>